--- a/static/excel/basic_month.xlsx
+++ b/static/excel/basic_month.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redukyo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redukyo/workspace/management/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>가입자수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   <si>
     <t>국가코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성</t>
+  </si>
+  <si>
+    <t>비활성</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>국가명</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -407,16 +419,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -425,6 +443,9 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/basic_month.xlsx
+++ b/static/excel/basic_month.xlsx
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
